--- a/docs/PT3/PT3_31.07.24_output.xlsx
+++ b/docs/PT3/PT3_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,663 +505,787 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730828538.3226984</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730828538.609669</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828538.3226984.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828538.609669.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.85</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.04</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730828538.6732154</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730828539.7390132</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828538.6732154.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828539.7390132.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.16</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.29</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730828544.049213</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730828546.4486907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828544.049213.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828546.4486907.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>290.06</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.97</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.08999999999997499</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730828547.2206228</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730828549.567349</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828547.2206228.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828549.567349.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>289.09</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>288.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4899999999999523</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730828549.710354</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730828549.7698913</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828549.710354.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828549.7698913.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>288.79</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>288.76</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730828552.8165274</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730828552.8165274.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730828552.8165274.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>288.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.5499999999999545</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730828561.0891137</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730828566.864927</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828561.0891137.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828566.864927.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.81</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.64</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.170000000000016</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730828572.0905313</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730828573.3526063</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828572.0905313.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828573.3526063.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730828580.3863444</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730828580.5405524</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828580.3863444.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828580.5405524.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>132.88</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>132.97</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730828580.6001468</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1730828580.6001468.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1730828580.6001468.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>132.97</v>
       </c>
-      <c r="J12" t="n">
-        <v>132.97</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>133.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730828592.0788512</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730828594.41148</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828592.0788512.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828594.41148.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6773.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6769</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730828603.4334817</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730828606.4864483</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828603.4334817.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828606.4864483.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6748.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6747.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730828626.4745383</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730828628.5797493</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828626.4745383.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828628.5797493.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>513.35</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>513.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,1020 +1293,1209 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730828633.5040312</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730828637.66819</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828633.5040312.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828637.66819.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>513.05</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>514.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.300000000000068</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730828647.2921667</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730828648.8002243</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828647.2921667.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828648.8002243.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1042</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1033</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730828650.3949716</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730828656.968819</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828650.3949716.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828656.968819.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1036.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1039.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-2.600000000000136</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730828657.9160206</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730828658.9139483</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828657.9160206.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828658.9139483.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1045</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1039.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730828677.994419</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730828683.043625</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1730828677.994419.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1730828683.043625.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.972</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11.894</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.0779999999999994</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730828695.8056674</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1730828695.8056674.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CNY1730828695.8056674.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.864</v>
       </c>
-      <c r="J21" t="n">
-        <v>11.864</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730828711.1034846</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730828713.1782618</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828711.1034846.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828713.1782618.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.54</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>130.66</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.120000000000005</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730828733.0506723</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730828733.9012883</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828733.0506723.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828733.9012883.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>164.22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>164.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730828761.1048026</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730828762.7804585</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828761.1048026.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828762.7804585.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>51.07</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>50.96</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730828763.2763362</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730828766.3930387</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828763.2763362.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828766.3930387.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>51.285</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>50.91</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.375</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730828781.2306345</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730828786.3937576</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828781.2306345.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828786.3937576.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1426</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1417.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-8.599999999999909</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730828788.29412</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730828790.727999</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828788.29412.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828790.727999.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1417</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1425.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-8.799999999999955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730828790.7895167</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730828792.0751135</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828790.7895167.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828792.0751135.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1425.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1414.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>10.79999999999995</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730828792.0907292</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730828794.8536026</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828792.0907292.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828794.8536026.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1414</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730828794.8692183</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730828798.1770294</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828794.8692183.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828798.1770294.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1414</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1413.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730828807.7808092</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730828810.4425366</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828807.7808092.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828810.4425366.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>61.11</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>61.05</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730828815.5758908</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730828815.6340127</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828815.5758908.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828815.6340127.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.87</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.0800000000000054</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730828815.6926005</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730828816.5780525</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828815.6926005.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828816.5780525.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.98</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.96</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730828819.7311401</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730828820.4894068</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828819.7311401.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828820.4894068.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.82</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>60.91</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730828824.0906358</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730828826.8484514</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828824.0906358.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828826.8484514.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.75</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>60.62</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730828827.3047483</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730828828.0604308</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828827.3047483.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828828.0604308.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>60.66</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>60.66</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2175,972 +2503,1152 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730828835.5649085</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730828837.1833298</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828835.5649085.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828837.1833298.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>58.24</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>58.55</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730828837.3238738</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730828837.4621725</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828837.3238738.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828837.4621725.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>58.42</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>58.44</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730828843.9767962</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730828845.0669398</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828843.9767962.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1730828845.0669398.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>57.71</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>58.06</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3500000000000014</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730828864.1627567</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730828866.1381707</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828864.1627567.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828866.1381707.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>142.06</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>142.38</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730828876.3204532</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730828876.3204532.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730828876.3204532.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>143.94</v>
       </c>
-      <c r="J41" t="n">
-        <v>143.94</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>143.66</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730828890.3282602</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730828892.1993642</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828890.3282602.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828892.1993642.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>85.31999999999999</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>85.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730828903.5388823</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730828906.937885</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828903.5388823.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828906.937885.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>85.02</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>84.84</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730828915.9553328</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730828917.128393</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828915.9553328.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828917.128393.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>376.81</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>375.14</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-1.670000000000016</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730828922.8257327</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730828923.1556752</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828922.8257327.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828923.1556752.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>372.69</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>374.06</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.370000000000005</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730828927.7144732</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730828931.3723679</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828927.7144732.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828931.3723679.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>374.36</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>374.21</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1500000000000341</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730828936.8217328</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730828939.8839924</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828936.8217328.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828939.8839924.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>375.91</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>376.58</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.6699999999999591</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730828941.335239</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730828942.7991085</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828941.335239.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828942.7991085.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.09772</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.09832</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.0006000000000000033</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730828944.7651927</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730828947.5228112</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828944.7651927.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828947.5228112.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.09822</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.09828000000000001</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>6.000000000000449e-05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730828955.1176271</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730828956.7190278</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828955.1176271.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828956.7190278.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.09956000000000001</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.09970000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730828956.820193</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730828957.062759</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828956.820193.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828957.062759.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.09982000000000001</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730828957.1213188</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730828957.5600064</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828957.1213188.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/FEES1730828957.5600064.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.0003000000000000086</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730828970.5219169</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730828972.303158</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828970.5219169.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828972.303158.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>34.75</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>34.71</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730828985.5909429</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730828986.9053504</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828985.5909429.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828986.9053504.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>34.58</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>34.515</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730828987.7923007</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730828988.067609</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828987.7923007.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828988.067609.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>34.545</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>34.57</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730828988.125224</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730828989.841796</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828988.125224.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828989.841796.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>34.575</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>34.565</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3686,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3186,11 +3709,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1100000000000136</v>
+        <v>-0.4399999999999409</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.07333333333332348</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3204,6 +3736,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.01666666666666454</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3217,6 +3758,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-1.240000000000009</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4299999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3230,6 +3780,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.0002480000000000038</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3243,6 +3802,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.6300000000000239</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3251,11 +3819,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.530000000000001</v>
+        <v>-1.909999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.4774999999999991</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3269,6 +3846,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.002500000000001279</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3282,6 +3868,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.006666666666670078</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.04999999999999993</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3295,6 +3890,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>3.866666666666636</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3308,6 +3912,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3321,6 +3934,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.6500000000000341</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3329,11 +3951,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3347,6 +3978,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.2424999999999997</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3360,6 +4000,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3368,11 +4017,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0779999999999994</v>
+        <v>-0.07299999999999862</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.03649999999999931</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3386,6 +4044,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.5800000000000125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3399,6 +4066,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>1.120000000000005</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3412,6 +4088,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
